--- a/natmiOut/OldD0/LR-pairs_lrc2p/Fbn1-Itgb1.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Fbn1-Itgb1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.48905470207573</v>
+        <v>7.871715666666666</v>
       </c>
       <c r="H2">
-        <v>3.48905470207573</v>
+        <v>23.615147</v>
       </c>
       <c r="I2">
-        <v>0.01255298095702207</v>
+        <v>0.02771913691218268</v>
       </c>
       <c r="J2">
-        <v>0.01255298095702207</v>
+        <v>0.02771913691218268</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>105.780770582245</v>
+        <v>117.044563</v>
       </c>
       <c r="N2">
-        <v>105.780770582245</v>
+        <v>351.133689</v>
       </c>
       <c r="O2">
-        <v>0.304277443323842</v>
+        <v>0.3245365645427815</v>
       </c>
       <c r="P2">
-        <v>0.304277443323842</v>
+        <v>0.3245365645427815</v>
       </c>
       <c r="Q2">
-        <v>369.074894989176</v>
+        <v>921.3415202652535</v>
       </c>
       <c r="R2">
-        <v>369.074894989176</v>
+        <v>8292.073682387281</v>
       </c>
       <c r="S2">
-        <v>0.00381958895169555</v>
+        <v>0.008995873465570771</v>
       </c>
       <c r="T2">
-        <v>0.00381958895169555</v>
+        <v>0.008995873465570769</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.48905470207573</v>
+        <v>7.871715666666666</v>
       </c>
       <c r="H3">
-        <v>3.48905470207573</v>
+        <v>23.615147</v>
       </c>
       <c r="I3">
-        <v>0.01255298095702207</v>
+        <v>0.02771913691218268</v>
       </c>
       <c r="J3">
-        <v>0.01255298095702207</v>
+        <v>0.02771913691218268</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>101.491265833572</v>
+        <v>101.5800373333333</v>
       </c>
       <c r="N3">
-        <v>101.491265833572</v>
+        <v>304.740112</v>
       </c>
       <c r="O3">
-        <v>0.291938721164157</v>
+        <v>0.281657135515876</v>
       </c>
       <c r="P3">
-        <v>0.291938721164157</v>
+        <v>0.281657135515876</v>
       </c>
       <c r="Q3">
-        <v>354.1085782762423</v>
+        <v>799.6091712973848</v>
       </c>
       <c r="R3">
-        <v>354.1085782762423</v>
+        <v>7196.482541676463</v>
       </c>
       <c r="S3">
-        <v>0.003664701207391039</v>
+        <v>0.007807292701657758</v>
       </c>
       <c r="T3">
-        <v>0.003664701207391039</v>
+        <v>0.007807292701657756</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.48905470207573</v>
+        <v>7.871715666666666</v>
       </c>
       <c r="H4">
-        <v>3.48905470207573</v>
+        <v>23.615147</v>
       </c>
       <c r="I4">
-        <v>0.01255298095702207</v>
+        <v>0.02771913691218268</v>
       </c>
       <c r="J4">
-        <v>0.01255298095702207</v>
+        <v>0.02771913691218268</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>140.373748387438</v>
+        <v>142.0267893333333</v>
       </c>
       <c r="N4">
-        <v>140.373748387438</v>
+        <v>426.080368</v>
       </c>
       <c r="O4">
-        <v>0.403783835512001</v>
+        <v>0.3938062999413425</v>
       </c>
       <c r="P4">
-        <v>0.403783835512001</v>
+        <v>0.3938062999413425</v>
       </c>
       <c r="Q4">
-        <v>489.771686859186</v>
+        <v>1117.994502681566</v>
       </c>
       <c r="R4">
-        <v>489.771686859186</v>
+        <v>10061.9505241341</v>
       </c>
       <c r="S4">
-        <v>0.005068690797935479</v>
+        <v>0.01091597074495415</v>
       </c>
       <c r="T4">
-        <v>0.005068690797935479</v>
+        <v>0.01091597074495415</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>264.648174721028</v>
+        <v>266.1315866666666</v>
       </c>
       <c r="H5">
-        <v>264.648174721028</v>
+        <v>798.3947599999999</v>
       </c>
       <c r="I5">
-        <v>0.9521557502687749</v>
+        <v>0.9371448614065047</v>
       </c>
       <c r="J5">
-        <v>0.9521557502687749</v>
+        <v>0.9371448614065045</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>105.780770582245</v>
+        <v>117.044563</v>
       </c>
       <c r="N5">
-        <v>105.780770582245</v>
+        <v>351.133689</v>
       </c>
       <c r="O5">
-        <v>0.304277443323842</v>
+        <v>0.3245365645427815</v>
       </c>
       <c r="P5">
-        <v>0.304277443323842</v>
+        <v>0.3245365645427815</v>
       </c>
       <c r="Q5">
-        <v>27994.68785517495</v>
+        <v>31149.25526189662</v>
       </c>
       <c r="R5">
-        <v>27994.68785517495</v>
+        <v>280343.2973570696</v>
       </c>
       <c r="S5">
-        <v>0.2897195173378774</v>
+        <v>0.3041377737997881</v>
       </c>
       <c r="T5">
-        <v>0.2897195173378774</v>
+        <v>0.3041377737997881</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>264.648174721028</v>
+        <v>266.1315866666666</v>
       </c>
       <c r="H6">
-        <v>264.648174721028</v>
+        <v>798.3947599999999</v>
       </c>
       <c r="I6">
-        <v>0.9521557502687749</v>
+        <v>0.9371448614065047</v>
       </c>
       <c r="J6">
-        <v>0.9521557502687749</v>
+        <v>0.9371448614065045</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>101.491265833572</v>
+        <v>101.5800373333333</v>
       </c>
       <c r="N6">
-        <v>101.491265833572</v>
+        <v>304.740112</v>
       </c>
       <c r="O6">
-        <v>0.291938721164157</v>
+        <v>0.281657135515876</v>
       </c>
       <c r="P6">
-        <v>0.291938721164157</v>
+        <v>0.281657135515876</v>
       </c>
       <c r="Q6">
-        <v>26859.47825298146</v>
+        <v>27033.65650917923</v>
       </c>
       <c r="R6">
-        <v>26859.47825298146</v>
+        <v>243302.9085826131</v>
       </c>
       <c r="S6">
-        <v>0.2779711320825646</v>
+        <v>0.2639535372271787</v>
       </c>
       <c r="T6">
-        <v>0.2779711320825646</v>
+        <v>0.2639535372271786</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>264.648174721028</v>
+        <v>266.1315866666666</v>
       </c>
       <c r="H7">
-        <v>264.648174721028</v>
+        <v>798.3947599999999</v>
       </c>
       <c r="I7">
-        <v>0.9521557502687749</v>
+        <v>0.9371448614065047</v>
       </c>
       <c r="J7">
-        <v>0.9521557502687749</v>
+        <v>0.9371448614065045</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>140.373748387438</v>
+        <v>142.0267893333333</v>
       </c>
       <c r="N7">
-        <v>140.373748387438</v>
+        <v>426.080368</v>
       </c>
       <c r="O7">
-        <v>0.403783835512001</v>
+        <v>0.3938062999413425</v>
       </c>
       <c r="P7">
-        <v>0.403783835512001</v>
+        <v>0.3938062999413425</v>
       </c>
       <c r="Q7">
-        <v>37149.65628948432</v>
+        <v>37797.81479445241</v>
       </c>
       <c r="R7">
-        <v>37149.65628948432</v>
+        <v>340180.3331500717</v>
       </c>
       <c r="S7">
-        <v>0.3844651008483329</v>
+        <v>0.3690535503795379</v>
       </c>
       <c r="T7">
-        <v>0.3844651008483329</v>
+        <v>0.3690535503795378</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>9.809077834215261</v>
+        <v>9.977966333333333</v>
       </c>
       <c r="H8">
-        <v>9.809077834215261</v>
+        <v>29.933899</v>
       </c>
       <c r="I8">
-        <v>0.03529126877420302</v>
+        <v>0.03513600168131278</v>
       </c>
       <c r="J8">
-        <v>0.03529126877420302</v>
+        <v>0.03513600168131277</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>105.780770582245</v>
+        <v>117.044563</v>
       </c>
       <c r="N8">
-        <v>105.780770582245</v>
+        <v>351.133689</v>
       </c>
       <c r="O8">
-        <v>0.304277443323842</v>
+        <v>0.3245365645427815</v>
       </c>
       <c r="P8">
-        <v>0.304277443323842</v>
+        <v>0.3245365645427815</v>
       </c>
       <c r="Q8">
-        <v>1037.611812004509</v>
+        <v>1167.866709113712</v>
       </c>
       <c r="R8">
-        <v>1037.611812004509</v>
+        <v>10510.80038202341</v>
       </c>
       <c r="S8">
-        <v>0.01073833703426903</v>
+        <v>0.01140291727742264</v>
       </c>
       <c r="T8">
-        <v>0.01073833703426903</v>
+        <v>0.01140291727742264</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>9.809077834215261</v>
+        <v>9.977966333333333</v>
       </c>
       <c r="H9">
-        <v>9.809077834215261</v>
+        <v>29.933899</v>
       </c>
       <c r="I9">
-        <v>0.03529126877420302</v>
+        <v>0.03513600168131278</v>
       </c>
       <c r="J9">
-        <v>0.03529126877420302</v>
+        <v>0.03513600168131277</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>101.491265833572</v>
+        <v>101.5800373333333</v>
       </c>
       <c r="N9">
-        <v>101.491265833572</v>
+        <v>304.740112</v>
       </c>
       <c r="O9">
-        <v>0.291938721164157</v>
+        <v>0.281657135515876</v>
       </c>
       <c r="P9">
-        <v>0.291938721164157</v>
+        <v>0.281657135515876</v>
       </c>
       <c r="Q9">
-        <v>995.5357260545397</v>
+        <v>1013.562192650743</v>
       </c>
       <c r="R9">
-        <v>995.5357260545397</v>
+        <v>9122.059733856688</v>
       </c>
       <c r="S9">
-        <v>0.01030288787420138</v>
+        <v>0.00989630558703956</v>
       </c>
       <c r="T9">
-        <v>0.01030288787420138</v>
+        <v>0.009896305587039557</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>9.809077834215261</v>
+        <v>9.977966333333333</v>
       </c>
       <c r="H10">
-        <v>9.809077834215261</v>
+        <v>29.933899</v>
       </c>
       <c r="I10">
-        <v>0.03529126877420302</v>
+        <v>0.03513600168131278</v>
       </c>
       <c r="J10">
-        <v>0.03529126877420302</v>
+        <v>0.03513600168131277</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>140.373748387438</v>
+        <v>142.0267893333333</v>
       </c>
       <c r="N10">
-        <v>140.373748387438</v>
+        <v>426.080368</v>
       </c>
       <c r="O10">
-        <v>0.403783835512001</v>
+        <v>0.3938062999413425</v>
       </c>
       <c r="P10">
-        <v>0.403783835512001</v>
+        <v>0.3938062999413425</v>
       </c>
       <c r="Q10">
-        <v>1376.937023812928</v>
+        <v>1417.138522399426</v>
       </c>
       <c r="R10">
-        <v>1376.937023812928</v>
+        <v>12754.24670159483</v>
       </c>
       <c r="S10">
-        <v>0.01425004386573261</v>
+        <v>0.01383677881685057</v>
       </c>
       <c r="T10">
-        <v>0.01425004386573261</v>
+        <v>0.01383677881685057</v>
       </c>
     </row>
   </sheetData>
